--- a/inertfaces.xlsx
+++ b/inertfaces.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Emad-Yousef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yousef_yma\Desktop\Emad-Yousef\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="843" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="843" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>أسم الموظف</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>رقم الغرامة</t>
+  </si>
+  <si>
+    <t>تسجيل الدخول</t>
   </si>
 </sst>
 </file>
@@ -634,96 +637,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,35 +1251,35 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="1"/>
@@ -1305,27 +1308,27 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1353,35 +1356,35 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="1"/>
@@ -1410,27 +1413,27 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1458,17 +1461,17 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:2" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1481,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1495,12 +1498,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -1544,12 +1547,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -1592,32 +1595,32 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1628,39 +1631,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1689,53 +1699,53 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1763,25 +1773,25 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1812,70 +1822,70 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1905,64 +1915,64 @@
   <sheetData>
     <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="3:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="3:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1992,32 +2002,32 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2049,60 +2059,60 @@
   <sheetData>
     <row r="2" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="3:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="3:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="3:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="G7" s="39" t="s">
+      <c r="D7" s="13"/>
+      <c r="G7" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="3:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2135,140 +2145,140 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="20"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="20"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="20"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="20"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="20"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
